--- a/PEA2/results.xlsx
+++ b/PEA2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\source\repos\PEA2\PEA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB884F2-BD1B-42D4-9260-05BF63B310E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C4E2BF-7EFF-4238-BD42-E84FF44A9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E41FBF-DF86-4BB1-9BF1-47E81C64F9D9}"/>
+    <workbookView xWindow="30660" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{A9E41FBF-DF86-4BB1-9BF1-47E81C64F9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -181,13 +181,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0997420464316423</c:v>
+                  <c:v>9.9742046431642306E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.111779879621668</c:v>
+                  <c:v>0.1117798796216681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1289767841788478</c:v>
+                  <c:v>0.12897678417884781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,13 +262,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1.0230099502487562</c:v>
+                        <c:v>2.3009950248756218E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.0385572139303483</c:v>
+                        <c:v>3.8557213930348257E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.0398009950248757</c:v>
+                        <c:v>3.9800995024875621E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -296,7 +296,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$A$6:$A$8</c15:sqref>
@@ -319,7 +319,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$D$6:$D$8</c15:sqref>
@@ -330,18 +330,18 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1.3310344827586207</c:v>
+                        <c:v>0.33103448275862069</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.2794918330308529</c:v>
+                        <c:v>0.27949183303085301</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.414519056261343</c:v>
+                        <c:v>0.414519056261343</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-A030-4A33-8E21-7ABAEA63A236}"/>
                   </c:ext>
@@ -647,11 +647,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -674,29 +674,31 @@
                   <c:v>invert</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$15:$D$17</c:f>
+              <c:f>Arkusz1!$D$23:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2319651741293531</c:v>
+                  <c:v>0.20464316423043852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1088308457711442</c:v>
+                  <c:v>0.15047291487532244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.236318407960199</c:v>
+                  <c:v>0.52536543422184012</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19DF-4A47-9CE8-6F3EBA045359}"/>
+              <c16:uniqueId val="{00000003-19DF-4A47-9CE8-6F3EBA045359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -716,34 +718,11 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Arkusz1!$A$19:$A$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>swap</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>insert</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>invert</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -779,7 +758,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Arkusz1!$D$19:$D$21</c15:sqref>
+                          <c15:sqref>Arkusz1!$D$15:$D$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -787,31 +766,54 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1.3687840290381126</c:v>
+                        <c:v>0.23196517412935325</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.2029038112522685</c:v>
+                        <c:v>0.10883084577114428</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.4108892921960072</c:v>
+                        <c:v>0.23631840796019901</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-19DF-4A47-9CE8-6F3EBA045359}"/>
+                    <c16:uniqueId val="{00000000-19DF-4A47-9CE8-6F3EBA045359}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Arkusz1!$A$19:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>swap</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>insert</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>invert</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent3"/>
+                    <a:schemeClr val="accent2"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -821,7 +823,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Arkusz1!$A$23:$A$25</c15:sqref>
@@ -844,10 +846,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Arkusz1!$D$23:$D$25</c15:sqref>
+                          <c15:sqref>Arkusz1!$D$19:$D$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -855,20 +857,20 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1.2046431642304385</c:v>
+                        <c:v>0.36878402903811253</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.1504729148753225</c:v>
+                        <c:v>0.20290381125226861</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.5253654342218401</c:v>
+                        <c:v>0.41088929219600728</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-19DF-4A47-9CE8-6F3EBA045359}"/>
+                    <c16:uniqueId val="{00000001-19DF-4A47-9CE8-6F3EBA045359}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1207,13 +1209,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0997420464316423</c:v>
+                  <c:v>9.9742046431642306E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3310344827586207</c:v>
+                  <c:v>0.33103448275862069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0230099502487562</c:v>
+                  <c:v>2.3009950248756218E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,13 +1263,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2319651741293531</c:v>
+                  <c:v>0.23196517412935325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3687840290381126</c:v>
+                  <c:v>0.36878402903811253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2046431642304385</c:v>
+                  <c:v>0.20464316423043852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,13 +3639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D293374-5922-488B-B6E6-B673BC61B2DA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3669,16 +3672,16 @@
         <v>57</v>
       </c>
       <c r="D2">
-        <f>B2/1608</f>
-        <v>1.0230099502487562</v>
+        <f>(B2-1608)/1608</f>
+        <v>2.3009950248756218E-2</v>
       </c>
       <c r="E2" s="1">
         <f>D2*100</f>
-        <v>102.30099502487562</v>
+        <v>2.3009950248756219</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("(",TEXT(E2, 0.01),"%, ",C2,"s)")</f>
-        <v>(102,31%, 57s)</v>
+        <v>(2,31%, 57s)</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,16 +3695,16 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <f>B3/1608</f>
-        <v>1.0385572139303483</v>
+        <f t="shared" ref="D3:D4" si="0">(B3-1608)/1608</f>
+        <v>3.8557213930348257E-2</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E12" si="0">D3*100</f>
-        <v>103.85572139303483</v>
+        <f t="shared" ref="E3:E12" si="1">D3*100</f>
+        <v>3.8557213930348255</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F12" si="1">CONCATENATE("(",TEXT(E3, 0.01),"%, ",C3,"s)")</f>
-        <v>(103,91%, 6s)</v>
+        <f t="shared" ref="F3:F12" si="2">CONCATENATE("(",TEXT(E3, 0.01),"%, ",C3,"s)")</f>
+        <v>(3,91%, 6s)</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,16 +3718,16 @@
         <v>114</v>
       </c>
       <c r="D4">
-        <f>B4/1608</f>
-        <v>1.0398009950248757</v>
+        <f>(B4-1608)/1608</f>
+        <v>3.9800995024875621E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>103.98009950248756</v>
+        <f t="shared" si="1"/>
+        <v>3.9800995024875623</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>(104,01%, 114s)</v>
+        <f t="shared" si="2"/>
+        <v>(4,01%, 114s)</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,7 +3736,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(0,01%, s)</v>
       </c>
     </row>
@@ -3748,16 +3751,16 @@
         <v>161</v>
       </c>
       <c r="D6">
-        <f>B6/2755</f>
-        <v>1.3310344827586207</v>
+        <f>(B6-2755)/2755</f>
+        <v>0.33103448275862069</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>133.10344827586206</v>
+        <f t="shared" si="1"/>
+        <v>33.103448275862071</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>(133,11%, 161s)</v>
+        <f t="shared" si="2"/>
+        <v>(33,11%, 161s)</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,16 +3774,16 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <f>B7/2755</f>
-        <v>1.2794918330308529</v>
+        <f t="shared" ref="D7:D8" si="3">(B7-2755)/2755</f>
+        <v>0.27949183303085301</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>127.94918330308529</v>
+        <f t="shared" si="1"/>
+        <v>27.949183303085302</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>(127,91%, 20s)</v>
+        <f t="shared" si="2"/>
+        <v>(27,91%, 20s)</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,16 +3797,16 @@
         <v>182</v>
       </c>
       <c r="D8">
-        <f>B8/2755</f>
-        <v>1.414519056261343</v>
+        <f t="shared" si="3"/>
+        <v>0.414519056261343</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>141.45190562613431</v>
+        <f t="shared" si="1"/>
+        <v>41.451905626134298</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>(141,51%, 182s)</v>
+        <f t="shared" si="2"/>
+        <v>(41,51%, 182s)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,7 +3815,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>(0,01%, s)</v>
       </c>
     </row>
@@ -3827,16 +3830,16 @@
         <v>103</v>
       </c>
       <c r="D10">
-        <f>B10/1163</f>
-        <v>1.0997420464316423</v>
+        <f>(B10-1163)/1163</f>
+        <v>9.9742046431642306E-2</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>109.97420464316423</v>
+        <f t="shared" si="1"/>
+        <v>9.9742046431642315</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>(110,01%, 103s)</v>
+        <f t="shared" si="2"/>
+        <v>(10,01%, 103s)</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,16 +3853,16 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <f>B11/1163</f>
-        <v>1.111779879621668</v>
+        <f t="shared" ref="D11:D12" si="4">(B11-1163)/1163</f>
+        <v>0.1117798796216681</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>111.1779879621668</v>
+        <f t="shared" si="1"/>
+        <v>11.17798796216681</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>(111,21%, 16s)</v>
+        <f t="shared" si="2"/>
+        <v>(11,21%, 16s)</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3873,16 +3876,16 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <f>B12/1163</f>
-        <v>1.1289767841788478</v>
+        <f t="shared" si="4"/>
+        <v>0.12897678417884781</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>112.89767841788478</v>
+        <f t="shared" si="1"/>
+        <v>12.89767841788478</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>(112,91%, 72s)</v>
+        <f t="shared" si="2"/>
+        <v>(12,91%, 72s)</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3901,16 +3904,16 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D15">
-        <f>B15/1608</f>
-        <v>1.2319651741293531</v>
+        <f>(B15-1608)/1608</f>
+        <v>0.23196517412935325</v>
       </c>
       <c r="E15" s="1">
         <f>D15*100</f>
-        <v>123.19651741293531</v>
+        <v>23.196517412935325</v>
       </c>
       <c r="F15" t="str">
         <f>CONCATENATE("(",TEXT(E15, 0.01),"%, ",C15,"s)")</f>
-        <v>(123,21%, 0,0005s)</v>
+        <v>(23,21%, 0,0005s)</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,16 +3927,16 @@
         <v>0.35</v>
       </c>
       <c r="D16">
-        <f>B16/1608</f>
-        <v>1.1088308457711442</v>
+        <f t="shared" ref="D16:D17" si="5">(B16-1608)/1608</f>
+        <v>0.10883084577114428</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E25" si="2">D16*100</f>
-        <v>110.88308457711442</v>
+        <f t="shared" ref="E16:E25" si="6">D16*100</f>
+        <v>10.883084577114428</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ref="F16:F25" si="3">CONCATENATE("(",TEXT(E16, 0.01),"%, ",C16,"s)")</f>
-        <v>(110,91%, 0,35s)</v>
+        <f t="shared" ref="F16:F25" si="7">CONCATENATE("(",TEXT(E16, 0.01),"%, ",C16,"s)")</f>
+        <v>(10,91%, 0,35s)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3947,16 +3950,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>B17/1608</f>
-        <v>1.236318407960199</v>
+        <f>(B17-1608)/1608</f>
+        <v>0.23631840796019901</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>123.6318407960199</v>
+        <f t="shared" si="6"/>
+        <v>23.631840796019901</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="3"/>
-        <v>(123,61%, 0s)</v>
+        <f t="shared" si="7"/>
+        <v>(23,61%, 0s)</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,7 +3968,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>(0,01%, s)</v>
       </c>
     </row>
@@ -3980,16 +3983,16 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D19">
-        <f>B19/2755</f>
-        <v>1.3687840290381126</v>
+        <f>(B19-2755)/2755</f>
+        <v>0.36878402903811253</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>136.87840290381126</v>
+        <f t="shared" si="6"/>
+        <v>36.878402903811249</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="3"/>
-        <v>(136,91%, 0,013s)</v>
+        <f t="shared" si="7"/>
+        <v>(36,91%, 0,013s)</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4003,16 +4006,16 @@
         <v>0.68</v>
       </c>
       <c r="D20">
-        <f>B20/2755</f>
-        <v>1.2029038112522685</v>
+        <f t="shared" ref="D20:D21" si="8">(B20-2755)/2755</f>
+        <v>0.20290381125226861</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>120.29038112522686</v>
+        <f t="shared" si="6"/>
+        <v>20.290381125226862</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v>(120,31%, 0,68s)</v>
+        <f t="shared" si="7"/>
+        <v>(20,31%, 0,68s)</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4026,16 +4029,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f>B21/2755</f>
-        <v>1.4108892921960072</v>
+        <f t="shared" si="8"/>
+        <v>0.41088929219600728</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>141.08892921960071</v>
+        <f t="shared" si="6"/>
+        <v>41.088929219600729</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v>(141,11%, 0s)</v>
+        <f t="shared" si="7"/>
+        <v>(41,11%, 0s)</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,7 +4047,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>(0,01%, s)</v>
       </c>
     </row>
@@ -4059,16 +4062,16 @@
         <v>4.66</v>
       </c>
       <c r="D23">
-        <f>B23/1163</f>
-        <v>1.2046431642304385</v>
+        <f>(B23-1163)/1163</f>
+        <v>0.20464316423043852</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>120.46431642304385</v>
+        <f t="shared" si="6"/>
+        <v>20.464316423043851</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v>(120,51%, 4,66s)</v>
+        <f t="shared" si="7"/>
+        <v>(20,51%, 4,66s)</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,16 +4085,16 @@
         <v>6.3</v>
       </c>
       <c r="D24">
-        <f>B24/1163</f>
-        <v>1.1504729148753225</v>
+        <f t="shared" ref="D24:D25" si="9">(B24-1163)/1163</f>
+        <v>0.15047291487532244</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>115.04729148753225</v>
+        <f t="shared" si="6"/>
+        <v>15.047291487532243</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v>(115,01%, 6,3s)</v>
+        <f t="shared" si="7"/>
+        <v>(15,01%, 6,3s)</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,16 +4108,16 @@
         <v>0.95</v>
       </c>
       <c r="D25">
-        <f>B25/1163</f>
-        <v>1.5253654342218401</v>
+        <f t="shared" si="9"/>
+        <v>0.52536543422184012</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>152.53654342218402</v>
+        <f t="shared" si="6"/>
+        <v>52.53654342218401</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="3"/>
-        <v>(152,51%, 0,95s)</v>
+        <f t="shared" si="7"/>
+        <v>(52,51%, 0,95s)</v>
       </c>
     </row>
   </sheetData>
